--- a/ccbhc_measurements/dashboard/excel files/CDF_AD_sub_1_stratification.xlsx
+++ b/ccbhc_measurements/dashboard/excel files/CDF_AD_sub_1_stratification.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>White</t>
         </is>
       </c>
     </row>
@@ -475,7 +475,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Not Hispanic or Latino</t>
+          <t>Hispanic or Latino</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Not Hispanic or Latino</t>
+          <t>Hispanic or Latino</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Not Hispanic or Latino</t>
+          <t>Hispanic or Latino</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Asian</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Other Race</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Not Hispanic or Latino</t>
+          <t>Hispanic or Latino</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Asian</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hispanic or Latino</t>
+          <t>Not Hispanic or Latino</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Other Race</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Not Hispanic or Latino</t>
+          <t>Hispanic or Latino</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black or African American</t>
         </is>
       </c>
     </row>

--- a/ccbhc_measurements/dashboard/excel files/CDF_AD_sub_1_stratification.xlsx
+++ b/ccbhc_measurements/dashboard/excel files/CDF_AD_sub_1_stratification.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black or African American</t>
         </is>
       </c>
     </row>
@@ -480,14 +480,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>32851</t>
+          <t>26287</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -497,31 +497,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Black or African American</t>
+          <t>Asian</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>34899</t>
+          <t>32851</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hispanic or Latino</t>
+          <t>Not Hispanic or Latino</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black or African American</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>35383</t>
+          <t>34899</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,31 +531,31 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>36963</t>
+          <t>35383</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hispanic or Latino</t>
+          <t>Not Hispanic or Latino</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Other Race</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>44221</t>
+          <t>36963</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -565,31 +565,31 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Asian</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>45421</t>
+          <t>44221</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hispanic or Latino</t>
+          <t>Not Hispanic or Latino</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Black or African American</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>49143</t>
+          <t>45421</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -599,19 +599,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>56517</t>
+          <t>49143</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Not Hispanic or Latino</t>
+          <t>Hispanic or Latino</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -623,7 +623,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>58898</t>
+          <t>56517</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -633,19 +633,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other Race</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>64017</t>
+          <t>58898</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hispanic or Latino</t>
+          <t>Not Hispanic or Latino</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>76051</t>
+          <t>64017</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -667,41 +667,75 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Black or African American</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>90185</t>
+          <t>64607</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hispanic or Latino</t>
+          <t>Not Hispanic or Latino</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Asian</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>76051</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Other Race</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>90185</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>92210</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Hispanic or Latino</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Black or African American</t>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
     </row>

--- a/ccbhc_measurements/dashboard/excel files/CDF_AD_sub_1_stratification.xlsx
+++ b/ccbhc_measurements/dashboard/excel files/CDF_AD_sub_1_stratification.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
     </row>
@@ -492,53 +492,53 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Not Hispanic or Latino</t>
+          <t>Hispanic or Latino</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other Race</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>32851</t>
+          <t>34899</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Not Hispanic or Latino</t>
+          <t>Hispanic or Latino</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Black or African American</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>34899</t>
+          <t>35383</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hispanic or Latino</t>
+          <t>Not Hispanic or Latino</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>35383</t>
+          <t>44221</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -548,14 +548,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Other Race</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>36963</t>
+          <t>45421</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -572,7 +572,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>44221</t>
+          <t>49143</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -589,24 +589,24 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>45421</t>
+          <t>56517</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Not Hispanic or Latino</t>
+          <t>Hispanic or Latino</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>49143</t>
+          <t>58898</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -616,14 +616,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>56517</t>
+          <t>64017</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>58898</t>
+          <t>64607</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -650,19 +650,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>64017</t>
+          <t>76051</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Not Hispanic or Latino</t>
+          <t>Hispanic or Latino</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -674,24 +674,24 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>64607</t>
+          <t>90185</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Not Hispanic or Latino</t>
+          <t>Hispanic or Latino</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>76051</t>
+          <t>92210</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -701,41 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Other Race</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>90185</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Hispanic or Latino</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>92210</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Not Hispanic or Latino</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>American Indian or Alaska Native</t>
+          <t>White</t>
         </is>
       </c>
     </row>
